--- a/app/routes/data.xlsx
+++ b/app/routes/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t xml:space="preserve">DEVICE</t>
   </si>
@@ -48,10 +48,7 @@
     <t xml:space="preserve">LENOVO</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
+    <t xml:space="preserve">COMBO</t>
   </si>
   <si>
     <t xml:space="preserve">LAPTOP &amp; DESKTOP</t>
@@ -63,10 +60,7 @@
     <t xml:space="preserve">HP</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
+    <t xml:space="preserve">TOUCH SCREEN DIGITIZER</t>
   </si>
   <si>
     <t xml:space="preserve">XIAOMI </t>
@@ -75,19 +69,13 @@
     <t xml:space="preserve">DELL</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
+    <t xml:space="preserve">BATTERY</t>
   </si>
   <si>
     <t xml:space="preserve">REALME</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
+    <t xml:space="preserve">CHARGING CONNECTOR</t>
   </si>
   <si>
     <t xml:space="preserve">VIVO</t>
@@ -96,10 +84,7 @@
     <t xml:space="preserve">ASUS</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
+    <t xml:space="preserve">CHARGING CONNECTOR FLEX</t>
   </si>
   <si>
     <t xml:space="preserve">OPPO</t>
@@ -108,10 +93,7 @@
     <t xml:space="preserve">ACER</t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
+    <t xml:space="preserve">ON/OFF KEY</t>
   </si>
   <si>
     <t xml:space="preserve">HONOUR</t>
@@ -120,10 +102,7 @@
     <t xml:space="preserve">HCL</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
+    <t xml:space="preserve">VOLUME KEY</t>
   </si>
   <si>
     <t xml:space="preserve">NOKIA</t>
@@ -132,10 +111,7 @@
     <t xml:space="preserve">IBM</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
+    <t xml:space="preserve">MIC REAR</t>
   </si>
   <si>
     <t xml:space="preserve">ASUS </t>
@@ -144,10 +120,7 @@
     <t xml:space="preserve">GOOGLE</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
+    <t xml:space="preserve">MIC FRONT</t>
   </si>
   <si>
     <t xml:space="preserve">ONEPLUS</t>
@@ -156,49 +129,79 @@
     <t xml:space="preserve">IBALL</t>
   </si>
   <si>
+    <t xml:space="preserve">SPEAKER REAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUAWEI</t>
   </si>
   <si>
     <t xml:space="preserve">RDP</t>
   </si>
   <si>
+    <t xml:space="preserve">SPEAKER FRONT</t>
+  </si>
+  <si>
     <t xml:space="preserve">GIGABYTE</t>
   </si>
   <si>
+    <t xml:space="preserve">BODY</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOTO</t>
   </si>
   <si>
     <t xml:space="preserve">LG</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTINA WIRE</t>
+  </si>
+  <si>
     <t xml:space="preserve">XIAOMI POCO</t>
   </si>
   <si>
     <t xml:space="preserve">MICROMAX</t>
   </si>
   <si>
+    <t xml:space="preserve">VIBRATOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.OR</t>
   </si>
   <si>
     <t xml:space="preserve">MICROSOFT</t>
   </si>
   <si>
+    <t xml:space="preserve">BATTERY BOARD CONNECTOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">GIONEE</t>
   </si>
   <si>
+    <t xml:space="preserve">DISPLAY BOARD CONNECTOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">VAIO</t>
   </si>
   <si>
+    <t xml:space="preserve">TOUCHSCREEN BOARD CONNECTOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">SONY</t>
   </si>
   <si>
     <t xml:space="preserve">XIAOMI</t>
   </si>
   <si>
+    <t xml:space="preserve">SIM/MEMORY TRAY OUTER</t>
+  </si>
+  <si>
     <t xml:space="preserve">INFINIX</t>
   </si>
   <si>
     <t xml:space="preserve">COMPAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACK PANEL</t>
   </si>
   <si>
     <t xml:space="preserve">LAVA</t>
@@ -295,7 +298,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -318,7 +320,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -389,21 +390,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6963562753036"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.2712550607287"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0566801619433"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.8259109311741"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,146 +438,202 @@
       <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
+      <c r="F2" s="0" t="str">
+        <f aca="false">CONCATENATE(G2," ","laptop")</f>
+        <v>COMBO laptop</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
+      <c r="F3" s="0" t="str">
+        <f aca="false">CONCATENATE(G3," ","laptop")</f>
+        <v>TOUCH SCREEN DIGITIZER laptop</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
+      <c r="F4" s="0" t="str">
+        <f aca="false">CONCATENATE(G4," ","laptop")</f>
+        <v>BATTERY laptop</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">CONCATENATE(G5," ","laptop")</f>
+        <v>CHARGING CONNECTOR laptop</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">CONCATENATE(G6," ","laptop")</f>
+        <v>CHARGING CONNECTOR FLEX laptop</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">CONCATENATE(G7," ","laptop")</f>
+        <v>ON/OFF KEY laptop</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">CONCATENATE(G8," ","laptop")</f>
+        <v>VOLUME KEY laptop</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">CONCATENATE(G9," ","laptop")</f>
+        <v>MIC REAR laptop</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">CONCATENATE(G10," ","laptop")</f>
+        <v>MIC FRONT laptop</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">CONCATENATE(G11," ","laptop")</f>
+        <v>SPEAKER REAR laptop</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">CONCATENATE(G12," ","laptop")</f>
+        <v>SPEAKER FRONT laptop</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,60 +642,130 @@
         <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">CONCATENATE(G13," ","laptop")</f>
+        <v>BODY laptop</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">CONCATENATE(G14," ","laptop")</f>
+        <v>ANTINA WIRE laptop</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">CONCATENATE(G15," ","laptop")</f>
+        <v>VIBRATOR laptop</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">CONCATENATE(G16," ","laptop")</f>
+        <v>BATTERY BOARD CONNECTOR laptop</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">CONCATENATE(G17," ","laptop")</f>
+        <v>DISPLAY BOARD CONNECTOR laptop</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">CONCATENATE(G18," ","laptop")</f>
+        <v>TOUCHSCREEN BOARD CONNECTOR laptop</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">CONCATENATE(G19," ","laptop")</f>
+        <v>SIM/MEMORY TRAY OUTER laptop</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>56</v>
       </c>
     </row>
@@ -649,256 +777,518 @@
       <c r="C20" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="E20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">CONCATENATE(G20," ","laptop")</f>
+        <v>BACK PANEL laptop</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1"/>
       <c r="B30" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="B31" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1"/>
       <c r="B36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="0" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1"/>
       <c r="B38" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
       <c r="B39" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1"/>
       <c r="B40" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
       <c r="B41" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -918,17 +1308,192 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="str">
+        <f aca="false">CONCATENATE(A5," ","laptop")</f>
+        <v>COMBO laptop</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <f aca="false">CONCATENATE(A6," ","laptop")</f>
+        <v>TOUCH SCREEN DIGITIZER laptop</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <f aca="false">CONCATENATE(A7," ","laptop")</f>
+        <v>BATTERY laptop</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <f aca="false">CONCATENATE(A8," ","laptop")</f>
+        <v>CHARGING CONNECTOR laptop</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <f aca="false">CONCATENATE(A9," ","laptop")</f>
+        <v>CHARGING CONNECTOR FLEX laptop</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <f aca="false">CONCATENATE(A10," ","laptop")</f>
+        <v>ON/OFF KEY laptop</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="0" t="str">
+        <f aca="false">CONCATENATE(A11," ","laptop")</f>
+        <v>VOLUME KEY laptop</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="0" t="str">
+        <f aca="false">CONCATENATE(A12," ","laptop")</f>
+        <v>MIC REAR laptop</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="str">
+        <f aca="false">CONCATENATE(A13," ","laptop")</f>
+        <v>MIC FRONT laptop</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="0" t="str">
+        <f aca="false">CONCATENATE(A14," ","laptop")</f>
+        <v>SPEAKER REAR laptop</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="0" t="str">
+        <f aca="false">CONCATENATE(A15," ","laptop")</f>
+        <v>SPEAKER FRONT laptop</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="0" t="str">
+        <f aca="false">CONCATENATE(A16," ","laptop")</f>
+        <v>BODY laptop</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="0" t="str">
+        <f aca="false">CONCATENATE(A17," ","laptop")</f>
+        <v>ANTINA WIRE laptop</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <f aca="false">CONCATENATE(A18," ","laptop")</f>
+        <v>VIBRATOR laptop</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="0" t="str">
+        <f aca="false">CONCATENATE(A19," ","laptop")</f>
+        <v>BATTERY BOARD CONNECTOR laptop</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="0" t="str">
+        <f aca="false">CONCATENATE(A20," ","laptop")</f>
+        <v>DISPLAY BOARD CONNECTOR laptop</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="0" t="str">
+        <f aca="false">CONCATENATE(A21," ","laptop")</f>
+        <v>TOUCHSCREEN BOARD CONNECTOR laptop</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="0" t="str">
+        <f aca="false">CONCATENATE(A22," ","laptop")</f>
+        <v>SIM/MEMORY TRAY OUTER laptop</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="0" t="str">
+        <f aca="false">CONCATENATE(A23," ","laptop")</f>
+        <v>BACK PANEL laptop</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
